--- a/V2 - tech-challenge-2-ia/Dataset/Escala_Setor_Periodo.xlsx
+++ b/V2 - tech-challenge-2-ia/Dataset/Escala_Setor_Periodo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/marcox_augusto_intel_com/Documents/Documents/Treinamentos/Pós-Tech/Fase 2 - IA Evolution/Fase02 - Tech Challenge/tech-challenge-2-ia/Dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/marcox_augusto_intel_com/Documents/Documents/Treinamentos/Pós-Tech/Fase 2 - IA Evolution/Fase02 - Tech Challenge/V2 - tech-challenge-2-ia/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{E9DD5462-1DF9-4390-BC0C-81E728C0A0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F240176-B10F-4D15-9259-6F800E85E153}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{E9DD5462-1DF9-4390-BC0C-81E728C0A0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBC9B118-C9E9-4C48-913C-83AF656B3C7D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96D17131-90A6-44C4-9748-AFB75E1E799F}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
